--- a/biology/Zoologie/Anthaxia_thalassophila/Anthaxia_thalassophila.xlsx
+++ b/biology/Zoologie/Anthaxia_thalassophila/Anthaxia_thalassophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthaxia thalassophila est une espèce d'anthaxies de la famille des Buprestidae que l'on trouve en Europe méditerranéenne: dans le midi de la France, en Italie, Grèce et les régions côtières de la Dalmatie, dans l'ancienne Yougoslavie, jusqu'en Albanie ; on la rencontre également dans la péninsule Ibérique et dans certaines zones de Suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se caractérise par la brillance de ses couleurs: vert brillant et rouge foncé aux reflets métalliques (sur le bord antérieur des élytres et sur l'ensemble des élytres à partir du milieu) pour la femelle; le mâle au lieu du rouge présente un jaune brillant aux reflets rougeâtres.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves se nourrissent aux dépens des genres suivants: Pistacia, Quercus, Castanea, Fraxinus et Olea.
 Les imagos apprécient les fleurs en particulier les marguerites.
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous-espèces
 Anthaxia thalassophila iberica Cobos, 1986
